--- a/trunk/doc/数值设计/Action数值设计_仙侠.xlsx
+++ b/trunk/doc/数值设计/Action数值设计_仙侠.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
@@ -21,12 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">职业!$B$2:$J$6</definedName>
     <definedName name="Eval">EVALUATE</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="440">
   <si>
     <t>ID</t>
   </si>
@@ -287,28 +287,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全体攻击，增加暴击，附加额外伤害，保留100气势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外伤害：系数提升至0.6
-增加暴击：50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体攻击，增加暴击，概率连击，保留100气势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天地无用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加暴击：50%
-连击概率：50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物理防御</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -410,10 +392,6 @@
   </si>
   <si>
     <t>混沌镇压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全体攻击，增加暴击，附加额外伤害，保留50气势</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -856,10 +834,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>眩晕概率：100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单体攻击，降低敌方气势为0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1072,30 +1046,6 @@
   </si>
   <si>
     <t>百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升命中概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升闪避概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升破击概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升格挡概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升暴击概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升韧性概率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1175,30 +1125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>降低命中概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低破击概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低闪避概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低格挡概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升暴击概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低韧性概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>概率眩晕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1207,14 +1133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风火乾坤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日月轮斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>紫霞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1580,14 +1498,6 @@
   </si>
   <si>
     <t>加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体攻击，增加防御、格挡和韧性，保留50气势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横向攻击，增加破击和暴击，概率眩晕，保留50气势</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1730,6 +1640,144 @@
   </si>
   <si>
     <t>剩余生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终闪避 &lt;= 60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终格挡 &lt;= 80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终暴击 &lt;= 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外伤害：系数提升至0.6
+增加暴击：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中概率 = 命中 * 0.6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避概率 = 闪避 * 0.6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破击概率 = 破击 * 0.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡概率 = 格挡 * 0.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击概率 = 暴击 * 1.0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性概率 = 韧性 * 1.0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾坤无极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，提升命中和暴击，保留100气势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体攻击，提升暴击，附加额外伤害，保留100气势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升命中：50
+增加暴击：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，提升格挡和韧性，保留100气势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加格挡：50
+增加韧性：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向攻击，提升破击和暴击，概率眩晕，保留50气势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加破击：50
+增加暴击：50
+眩晕概率：30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风火燎原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕概率：100%
+恢复生命：双攻*0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体攻击，提升暴击，附加额外伤害，保留50气势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升破击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升格挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升韧性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低破击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低格挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低韧性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1968,7 +2016,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2134,6 +2182,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2141,7 +2226,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2311,44 +2396,8 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2389,14 +2438,62 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2407,22 +2504,52 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2730,7 +2857,7 @@
   <dimension ref="B2:S177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
@@ -2769,16 +2896,16 @@
         <v>50</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>55</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="L2" s="22" t="s">
         <v>2</v>
@@ -2790,13 +2917,13 @@
         <v>32</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="R2" s="22" t="s">
         <v>29</v>
@@ -2890,7 +3017,7 @@
       </c>
       <c r="G4" s="31" t="str">
         <f>VLOOKUP(D4,绝技!B:C,2,0)</f>
-        <v>日月轮斩</v>
+        <v>乾坤无极</v>
       </c>
       <c r="H4" s="20">
         <v>97</v>
@@ -2948,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F5" s="34" t="str">
         <f>VLOOKUP(C5,职业!B:C,2,0)</f>
@@ -3022,7 +3149,7 @@
       </c>
       <c r="G6" s="31" t="str">
         <f>VLOOKUP(D6,绝技!B:C,2,0)</f>
-        <v>风火乾坤</v>
+        <v>风火燎原</v>
       </c>
       <c r="H6" s="20">
         <v>96</v>
@@ -3146,7 +3273,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F8" s="34" t="str">
         <f>VLOOKUP(C8,职业!B:C,2,0)</f>
@@ -3212,7 +3339,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F9" s="34" t="str">
         <f>VLOOKUP(C9,职业!B:C,2,0)</f>
@@ -3278,7 +3405,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F10" s="34" t="str">
         <f>VLOOKUP(C10,职业!B:C,2,0)</f>
@@ -3344,7 +3471,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F11" s="34" t="str">
         <f>VLOOKUP(C11,职业!B:C,2,0)</f>
@@ -3410,7 +3537,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F12" s="34" t="str">
         <f>VLOOKUP(C12,职业!B:C,2,0)</f>
@@ -3476,7 +3603,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F13" s="34" t="str">
         <f>VLOOKUP(C13,职业!B:C,2,0)</f>
@@ -3542,7 +3669,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F14" s="34" t="str">
         <f>VLOOKUP(C14,职业!B:C,2,0)</f>
@@ -3608,7 +3735,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F15" s="34" t="str">
         <f>VLOOKUP(C15,职业!B:C,2,0)</f>
@@ -3674,7 +3801,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F16" s="34" t="str">
         <f>VLOOKUP(C16,职业!B:C,2,0)</f>
@@ -3740,7 +3867,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F17" s="34" t="str">
         <f>VLOOKUP(C17,职业!B:C,2,0)</f>
@@ -3806,7 +3933,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F18" s="34" t="str">
         <f>VLOOKUP(C18,职业!B:C,2,0)</f>
@@ -3870,7 +3997,7 @@
         <v>17</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F19" s="34" t="str">
         <f>VLOOKUP(C19,职业!B:C,2,0)</f>
@@ -3934,7 +4061,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F20" s="34" t="str">
         <f>VLOOKUP(C20,职业!B:C,2,0)</f>
@@ -3998,7 +4125,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F21" s="34" t="str">
         <f>VLOOKUP(C21,职业!B:C,2,0)</f>
@@ -4062,7 +4189,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F22" s="34" t="str">
         <f>VLOOKUP(C22,职业!B:C,2,0)</f>
@@ -4126,7 +4253,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F23" s="34" t="str">
         <f>VLOOKUP(C23,职业!B:C,2,0)</f>
@@ -4190,7 +4317,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F24" s="34" t="str">
         <f>VLOOKUP(C24,职业!B:C,2,0)</f>
@@ -4254,7 +4381,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F25" s="34" t="str">
         <f>VLOOKUP(C25,职业!B:C,2,0)</f>
@@ -4318,7 +4445,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F26" s="34" t="str">
         <f>VLOOKUP(C26,职业!B:C,2,0)</f>
@@ -4382,7 +4509,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F27" s="34" t="str">
         <f>VLOOKUP(C27,职业!B:C,2,0)</f>
@@ -4446,7 +4573,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F28" s="34" t="str">
         <f>VLOOKUP(C28,职业!B:C,2,0)</f>
@@ -4510,7 +4637,7 @@
         <v>27</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F29" s="34" t="str">
         <f>VLOOKUP(C29,职业!B:C,2,0)</f>
@@ -4574,7 +4701,7 @@
         <v>28</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="F30" s="34" t="str">
         <f>VLOOKUP(C30,职业!B:C,2,0)</f>
@@ -4638,7 +4765,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F31" s="34" t="str">
         <f>VLOOKUP(C31,职业!B:C,2,0)</f>
@@ -4702,7 +4829,7 @@
         <v>30</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F32" s="34" t="str">
         <f>VLOOKUP(C32,职业!B:C,2,0)</f>
@@ -4766,7 +4893,7 @@
         <v>31</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F33" s="34" t="str">
         <f>VLOOKUP(C33,职业!B:C,2,0)</f>
@@ -4830,7 +4957,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F34" s="34" t="str">
         <f>VLOOKUP(C34,职业!B:C,2,0)</f>
@@ -4894,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F35" s="34" t="str">
         <f>VLOOKUP(C35,职业!B:C,2,0)</f>
@@ -4954,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F36" s="34" t="str">
         <f>VLOOKUP(C36,职业!B:C,2,0)</f>
@@ -5014,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F37" s="34" t="str">
         <f>VLOOKUP(C37,职业!B:C,2,0)</f>
@@ -5074,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F38" s="34" t="str">
         <f>VLOOKUP(C38,职业!B:C,2,0)</f>
@@ -5138,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F39" s="34" t="str">
         <f>VLOOKUP(C39,职业!B:C,2,0)</f>
@@ -5198,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F40" s="34" t="str">
         <f>VLOOKUP(C40,职业!B:C,2,0)</f>
@@ -5258,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F41" s="34" t="str">
         <f>VLOOKUP(C41,职业!B:C,2,0)</f>
@@ -5318,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F42" s="34" t="str">
         <f>VLOOKUP(C42,职业!B:C,2,0)</f>
@@ -5378,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F43" s="34" t="str">
         <f>VLOOKUP(C43,职业!B:C,2,0)</f>
@@ -5442,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F44" s="34" t="str">
         <f>VLOOKUP(C44,职业!B:C,2,0)</f>
@@ -5502,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F45" s="34" t="str">
         <f>VLOOKUP(C45,职业!B:C,2,0)</f>
@@ -5562,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F46" s="34" t="str">
         <f>VLOOKUP(C46,职业!B:C,2,0)</f>
@@ -5622,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F47" s="34" t="str">
         <f>VLOOKUP(C47,职业!B:C,2,0)</f>
@@ -5682,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F48" s="34" t="str">
         <f>VLOOKUP(C48,职业!B:C,2,0)</f>
@@ -5742,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F49" s="34" t="str">
         <f>VLOOKUP(C49,职业!B:C,2,0)</f>
@@ -5802,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F50" s="34" t="str">
         <f>VLOOKUP(C50,职业!B:C,2,0)</f>
@@ -5862,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="38" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F51" s="34" t="str">
         <f>VLOOKUP(C51,职业!B:C,2,0)</f>
@@ -5922,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F52" s="34" t="str">
         <f>VLOOKUP(C52,职业!B:C,2,0)</f>
@@ -12990,22 +13117,22 @@
       </c>
     </row>
     <row r="175" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B175" s="55"/>
-      <c r="C175" s="55"/>
-      <c r="D175" s="55"/>
-      <c r="E175" s="55"/>
+      <c r="B175" s="76"/>
+      <c r="C175" s="76"/>
+      <c r="D175" s="76"/>
+      <c r="E175" s="76"/>
     </row>
     <row r="176" spans="2:19">
-      <c r="B176" s="55"/>
-      <c r="C176" s="55"/>
-      <c r="D176" s="55"/>
-      <c r="E176" s="55"/>
+      <c r="B176" s="76"/>
+      <c r="C176" s="76"/>
+      <c r="D176" s="76"/>
+      <c r="E176" s="76"/>
     </row>
     <row r="177" spans="2:5">
-      <c r="B177" s="56"/>
-      <c r="C177" s="56"/>
-      <c r="D177" s="56"/>
-      <c r="E177" s="56"/>
+      <c r="B177" s="77"/>
+      <c r="C177" s="77"/>
+      <c r="D177" s="77"/>
+      <c r="E177" s="77"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
@@ -13040,8 +13167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13095,13 +13222,13 @@
         <v>0.6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>65</v>
+        <v>420</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>66</v>
+        <v>411</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="27">
@@ -13109,19 +13236,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>299</v>
+        <v>418</v>
       </c>
       <c r="D5" s="36">
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>67</v>
+        <v>419</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>69</v>
+        <v>421</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="27">
@@ -13129,39 +13256,39 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="36">
         <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>191</v>
+        <v>423</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="27">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="40.5">
       <c r="B7" s="4">
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>298</v>
+        <v>426</v>
       </c>
       <c r="D7" s="36">
         <v>0.6</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>208</v>
+        <v>425</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="27">
@@ -13169,19 +13296,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D8" s="36">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>205</v>
+        <v>427</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="27">
@@ -13189,19 +13316,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D9" s="36">
         <v>0.6</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>96</v>
+        <v>428</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>66</v>
+        <v>411</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="27">
@@ -13209,19 +13336,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D10" s="36">
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="27">
@@ -13229,19 +13356,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D11" s="36">
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -13249,17 +13376,17 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D12" s="36">
         <v>0.6</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="27">
@@ -13267,19 +13394,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" s="36">
         <v>1</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="40.5">
@@ -13287,19 +13414,19 @@
         <v>11</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D14" s="36">
         <v>1</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -13307,19 +13434,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D15" s="36">
         <v>1</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -13327,19 +13454,19 @@
         <v>13</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D16" s="36">
         <v>0.6</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -13347,19 +13474,19 @@
         <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D17" s="36">
         <v>0.4</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -13367,19 +13494,19 @@
         <v>15</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="36">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="36">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="F18" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="27">
@@ -13387,19 +13514,19 @@
         <v>16</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D19" s="36">
         <v>0.6</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="27">
@@ -13407,19 +13534,19 @@
         <v>17</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D20" s="36">
         <v>0.6</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -13427,17 +13554,17 @@
         <v>18</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D21" s="36">
         <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="37" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -13445,19 +13572,19 @@
         <v>19</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D22" s="36">
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="27">
@@ -13465,19 +13592,19 @@
         <v>20</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D23" s="36">
         <v>1</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="27">
@@ -13485,19 +13612,19 @@
         <v>21</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D24" s="36">
         <v>1</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="27">
@@ -13505,19 +13632,19 @@
         <v>22</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D25" s="36">
         <v>1</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="27">
@@ -13525,19 +13652,19 @@
         <v>23</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D26" s="36">
         <v>0</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="27">
@@ -13545,19 +13672,19 @@
         <v>24</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D27" s="36">
         <v>1</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="27">
@@ -13565,19 +13692,19 @@
         <v>25</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D28" s="36">
         <v>0</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -13585,17 +13712,17 @@
         <v>26</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D29" s="36">
         <v>0.6</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="37" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -13603,13 +13730,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D30" s="36"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="37" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -13617,13 +13744,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D31" s="36"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="37" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -13631,13 +13758,13 @@
         <v>29</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D32" s="36"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -13645,13 +13772,13 @@
         <v>30</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D33" s="36"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="37" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -13659,7 +13786,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D34" s="36">
         <v>1</v>
@@ -13667,7 +13794,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="37" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -13675,7 +13802,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D35" s="36">
         <v>1</v>
@@ -13683,7 +13810,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="37" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="2:7">
@@ -13865,10 +13992,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J7"/>
+  <dimension ref="B2:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13909,17 +14036,15 @@
       <c r="C3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="32">
-        <v>10</v>
-      </c>
+      <c r="D3" s="32"/>
       <c r="E3" s="32">
+        <v>30</v>
+      </c>
+      <c r="F3" s="32">
         <v>20</v>
       </c>
-      <c r="F3" s="32"/>
       <c r="G3" s="32"/>
-      <c r="H3" s="32">
-        <v>20</v>
-      </c>
+      <c r="H3" s="32"/>
       <c r="I3" s="32"/>
       <c r="J3" s="23">
         <f t="shared" ref="J3:J6" si="0">SUM(D3:I3)</f>
@@ -13956,13 +14081,13 @@
         <v>61</v>
       </c>
       <c r="D5" s="32">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="23">
@@ -13979,15 +14104,13 @@
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="32">
-        <v>50</v>
-      </c>
+      <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
       <c r="J6" s="23">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -14003,11 +14126,11 @@
       </c>
       <c r="E7" s="32">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F7" s="32">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="1"/>
@@ -14015,7 +14138,7 @@
       </c>
       <c r="H7" s="32">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I7" s="32">
         <f t="shared" si="1"/>
@@ -14023,8 +14146,65 @@
       </c>
       <c r="J7" s="32">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="99" t="s">
+        <v>412</v>
+      </c>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="102" t="s">
+        <v>413</v>
+      </c>
+      <c r="C10" s="103"/>
+      <c r="D10" s="104"/>
+      <c r="F10" s="105" t="s">
+        <v>408</v>
+      </c>
+      <c r="G10" s="106"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="F11" s="105" t="s">
+        <v>409</v>
+      </c>
+      <c r="G11" s="106"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="102" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" s="103"/>
+      <c r="D12" s="104"/>
+      <c r="F12" s="105" t="s">
+        <v>410</v>
+      </c>
+      <c r="G12" s="106"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="99" t="s">
+        <v>416</v>
+      </c>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="102" t="s">
+        <v>417</v>
+      </c>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:J6">
@@ -14033,6 +14213,17 @@
       <sortCondition ref="B2:B17"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="9">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C5:C7"/>
@@ -14044,20 +14235,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G38"/>
+  <dimension ref="B2:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:8">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -14076,13 +14267,16 @@
       <c r="G2" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="H2" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>32</v>
@@ -14097,16 +14291,19 @@
         <f t="shared" ref="G3:G37" si="0">E3*(10+F3)</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E4" s="25">
         <v>4</v>
@@ -14118,13 +14315,16 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>4</v>
@@ -14139,16 +14339,19 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E6" s="25">
         <v>2</v>
@@ -14160,16 +14363,19 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E7" s="25">
         <v>3</v>
@@ -14181,16 +14387,19 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="4">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="E8" s="25">
         <v>4</v>
@@ -14202,16 +14411,19 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="4">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="E9" s="25">
         <v>5</v>
@@ -14223,13 +14435,16 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>32</v>
@@ -14245,16 +14460,19 @@
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="H10" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" ref="E11:E16" si="1">E4*2</f>
@@ -14267,13 +14485,16 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="H11" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="4">
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>4</v>
@@ -14289,16 +14510,19 @@
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="H12" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="4">
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="1"/>
@@ -14311,16 +14535,19 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="H13" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="4">
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
@@ -14333,16 +14560,19 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="H14" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="4">
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="1"/>
@@ -14355,16 +14585,19 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="H15" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="4">
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="1"/>
@@ -14377,13 +14610,16 @@
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="H16" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="4">
         <v>15</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>32</v>
@@ -14399,16 +14635,19 @@
         <f t="shared" si="0"/>
         <v>198</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="H17" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="4">
         <v>16</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E18" s="26">
         <f t="shared" ref="E18:E23" si="2">E4*3</f>
@@ -14421,13 +14660,16 @@
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="4">
         <v>17</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>4</v>
@@ -14443,16 +14685,19 @@
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="H19" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="4">
         <v>18</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E20" s="26">
         <f t="shared" si="2"/>
@@ -14465,16 +14710,19 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="H20" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="4">
         <v>19</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E21" s="26">
         <f t="shared" si="2"/>
@@ -14487,16 +14735,19 @@
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="H21" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="4">
         <v>20</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="E22" s="26">
         <f t="shared" si="2"/>
@@ -14509,16 +14760,19 @@
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="H22" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="4">
         <v>21</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="E23" s="26">
         <f t="shared" si="2"/>
@@ -14531,13 +14785,16 @@
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="H23" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="4">
         <v>22</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>32</v>
@@ -14553,16 +14810,19 @@
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="H24" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" s="4">
         <v>23</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E25" s="27">
         <f t="shared" ref="E25:E30" si="3">E4*4</f>
@@ -14575,13 +14835,16 @@
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="H25" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="4">
         <v>24</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>4</v>
@@ -14597,16 +14860,19 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="H26" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27" s="4">
         <v>25</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E27" s="27">
         <f t="shared" si="3"/>
@@ -14619,16 +14885,19 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="H27" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" s="4">
         <v>26</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E28" s="27">
         <f t="shared" si="3"/>
@@ -14641,16 +14910,19 @@
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="29" spans="2:7">
+      <c r="H28" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" s="4">
         <v>27</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="E29" s="27">
         <f t="shared" si="3"/>
@@ -14663,16 +14935,19 @@
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="H29" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30" s="4">
         <v>28</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="E30" s="27">
         <f t="shared" si="3"/>
@@ -14685,13 +14960,16 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="H30" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
       <c r="B31" s="4">
         <v>29</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>32</v>
@@ -14707,16 +14985,19 @@
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-    </row>
-    <row r="32" spans="2:7">
+      <c r="H31" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
       <c r="B32" s="4">
         <v>30</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E32" s="28">
         <f t="shared" ref="E32:E37" si="4">E4*5</f>
@@ -14729,13 +15010,16 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="H32" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33" s="4">
         <v>31</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>4</v>
@@ -14751,16 +15035,19 @@
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="H33" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" s="4">
         <v>32</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E34" s="28">
         <f t="shared" si="4"/>
@@ -14773,16 +15060,19 @@
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="35" spans="2:7">
+      <c r="H34" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" s="4">
         <v>33</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E35" s="28">
         <f t="shared" si="4"/>
@@ -14795,16 +15085,19 @@
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-    </row>
-    <row r="36" spans="2:7">
+      <c r="H35" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" s="4">
         <v>34</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="E36" s="28">
         <f t="shared" si="4"/>
@@ -14817,16 +15110,19 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="37" spans="2:7">
+      <c r="H36" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
       <c r="B37" s="4">
         <v>35</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="E37" s="28">
         <f t="shared" si="4"/>
@@ -14839,26 +15135,30 @@
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="75">
-        <v>0</v>
-      </c>
-      <c r="C38" s="76" t="s">
-        <v>420</v>
-      </c>
-      <c r="D38" s="76" t="s">
-        <v>420</v>
-      </c>
-      <c r="E38" s="77">
-        <v>0</v>
-      </c>
-      <c r="F38" s="77">
-        <v>0</v>
-      </c>
-      <c r="G38" s="77">
-        <v>0</v>
-      </c>
+      <c r="H37" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="63">
+        <v>0</v>
+      </c>
+      <c r="C38" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="E38" s="65">
+        <v>0</v>
+      </c>
+      <c r="F38" s="65">
+        <v>0</v>
+      </c>
+      <c r="G38" s="65">
+        <v>0</v>
+      </c>
+      <c r="H38" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14876,7 +15176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -14902,7 +15202,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="54" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -14910,7 +15210,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>4</v>
@@ -14934,10 +15234,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="E4" s="6">
         <v>2</v>
@@ -14959,7 +15259,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>21</v>
@@ -14984,7 +15284,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>45</v>
@@ -15009,7 +15309,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>46</v>
@@ -15034,10 +15334,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="E8" s="6">
         <v>2</v>
@@ -15059,10 +15359,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
@@ -15084,10 +15384,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="E10" s="6">
         <v>3</v>
@@ -15109,10 +15409,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="E11" s="26">
         <v>500</v>
@@ -15134,10 +15434,10 @@
         <v>18</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="E12" s="26">
         <v>4</v>
@@ -15156,10 +15456,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="E13" s="26">
         <v>3</v>
@@ -15178,10 +15478,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="E14" s="26">
         <v>3</v>
@@ -15200,10 +15500,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="E15" s="26">
         <v>4</v>
@@ -15222,10 +15522,10 @@
         <v>22</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="E16" s="26">
         <v>4</v>
@@ -15244,10 +15544,10 @@
         <v>23</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="E17" s="26">
         <v>6</v>
@@ -15266,10 +15566,10 @@
         <v>24</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E18" s="26">
         <v>6</v>
@@ -15288,10 +15588,10 @@
         <v>25</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="E19" s="27">
         <v>1000</v>
@@ -15310,10 +15610,10 @@
         <v>26</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="E20" s="27">
         <v>6</v>
@@ -15332,10 +15632,10 @@
         <v>27</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="E21" s="27">
         <v>5</v>
@@ -15354,10 +15654,10 @@
         <v>28</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="E22" s="27">
         <v>5</v>
@@ -15376,10 +15676,10 @@
         <v>29</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="E23" s="27">
         <v>7</v>
@@ -15398,10 +15698,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="E24" s="27">
         <v>7</v>
@@ -15420,10 +15720,10 @@
         <v>31</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="E25" s="27">
         <v>10</v>
@@ -15442,10 +15742,10 @@
         <v>32</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E26" s="27">
         <v>10</v>
@@ -15464,10 +15764,10 @@
         <v>33</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="E27" s="28">
         <v>2000</v>
@@ -15486,10 +15786,10 @@
         <v>34</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="E28" s="28">
         <v>10</v>
@@ -15508,10 +15808,10 @@
         <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="E29" s="28">
         <v>7</v>
@@ -15530,10 +15830,10 @@
         <v>36</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="E30" s="28">
         <v>7</v>
@@ -15552,10 +15852,10 @@
         <v>37</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="E31" s="28">
         <v>10</v>
@@ -15574,10 +15874,10 @@
         <v>38</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="E32" s="28">
         <v>10</v>
@@ -15596,10 +15896,10 @@
         <v>39</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="E33" s="28">
         <v>15</v>
@@ -15618,10 +15918,10 @@
         <v>40</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E34" s="28">
         <v>15</v>
@@ -15652,8 +15952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15678,16 +15978,16 @@
         <v>56</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>4</v>
@@ -15696,13 +15996,13 @@
         <v>32</v>
       </c>
       <c r="M2" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="35" t="s">
-        <v>74</v>
-      </c>
       <c r="O2" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P2" s="41" t="s">
         <v>29</v>
@@ -15711,13 +16011,13 @@
         <v>30</v>
       </c>
       <c r="R2" s="49" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="S2" s="49" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="T2" s="49" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="2:20">
@@ -15884,7 +16184,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>40</v>
@@ -15983,14 +16283,14 @@
     <row r="10" spans="2:20">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66" t="s">
+      <c r="E10" s="87"/>
+      <c r="F10" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="57"/>
+      <c r="G10" s="78"/>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="2"/>
@@ -16009,7 +16309,7 @@
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="86" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -16033,7 +16333,7 @@
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="65"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="15" t="s">
         <v>18</v>
       </c>
@@ -16055,7 +16355,7 @@
       </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="86" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -16079,7 +16379,7 @@
       </c>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="65"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="15" t="s">
         <v>20</v>
       </c>
@@ -16104,15 +16404,15 @@
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="2" t="s">
         <v>26</v>
       </c>
@@ -16121,15 +16421,15 @@
       <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
+      <c r="C18" s="81" t="s">
+        <v>361</v>
+      </c>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="83"/>
       <c r="J18" s="15">
         <v>1</v>
       </c>
@@ -16138,15 +16438,15 @@
       <c r="B19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="60" t="s">
-        <v>382</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
+      <c r="C19" s="81" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="83"/>
       <c r="J19" s="15">
         <v>1</v>
       </c>
@@ -16155,15 +16455,15 @@
       <c r="B20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="C20" s="81" t="s">
+        <v>363</v>
+      </c>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="83"/>
       <c r="J20" s="15">
         <v>1</v>
       </c>
@@ -16172,32 +16472,32 @@
       <c r="B21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
+      <c r="C21" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="83"/>
       <c r="J21" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
+        <v>66</v>
+      </c>
+      <c r="C22" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="83"/>
       <c r="J22" s="15">
         <v>1</v>
       </c>
@@ -16206,15 +16506,15 @@
       <c r="B23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
+      <c r="C23" s="81" t="s">
+        <v>366</v>
+      </c>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="83"/>
       <c r="J23" s="15">
         <v>1</v>
       </c>
@@ -16223,128 +16523,128 @@
       <c r="B24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="60" t="s">
-        <v>387</v>
-      </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
+      <c r="C24" s="81" t="s">
+        <v>367</v>
+      </c>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="83"/>
       <c r="J24" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="57" t="s">
+      <c r="C26" s="80"/>
+      <c r="D26" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="80"/>
       <c r="L26" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="84" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="D27" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
+        <v>282</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>368</v>
+      </c>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="83"/>
       <c r="L27" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="64"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>390</v>
-      </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="62"/>
+        <v>283</v>
+      </c>
+      <c r="D28" s="81" t="s">
+        <v>370</v>
+      </c>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="83"/>
       <c r="L28" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="84" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>389</v>
-      </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="62"/>
+        <v>282</v>
+      </c>
+      <c r="D29" s="81" t="s">
+        <v>369</v>
+      </c>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="83"/>
       <c r="L29" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="64"/>
+      <c r="B30" s="85"/>
       <c r="C30" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>304</v>
-      </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
+        <v>283</v>
+      </c>
+      <c r="D30" s="81" t="s">
+        <v>284</v>
+      </c>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="83"/>
       <c r="L30" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -16395,8 +16695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16405,1061 +16705,1155 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="57" t="str">
-        <f>"A:"&amp;VLOOKUP(D4,仙侣!B:E,4,0)</f>
-        <v>A:孙悟空</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="I2" s="57" t="str">
-        <f>"B:"&amp;VLOOKUP(K4,仙侣!B:E,4,0)</f>
-        <v>B:孙悟空</v>
-      </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
+      <c r="B2" s="78" t="str">
+        <f>VLOOKUP(D4,仙侣!B:E,4,0)</f>
+        <v>孙悟空</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
+      <c r="I2" s="78" t="str">
+        <f>VLOOKUP(K4,仙侣!B:E,4,0)</f>
+        <v>杨戬</v>
+      </c>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="80"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="51"/>
       <c r="C3" s="52"/>
       <c r="D3" s="53"/>
-      <c r="E3" s="84" t="s">
-        <v>421</v>
-      </c>
-      <c r="F3" s="70" t="s">
+      <c r="E3" s="88" t="s">
+        <v>399</v>
+      </c>
+      <c r="F3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="59">
         <f>INT((100+D12*5)*(10+D5)*0.1)+D29</f>
-        <v>704</v>
+        <v>9240</v>
       </c>
       <c r="I3" s="51"/>
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
-      <c r="L3" s="84" t="s">
-        <v>421</v>
-      </c>
-      <c r="M3" s="70" t="s">
+      <c r="L3" s="88" t="s">
+        <v>399</v>
+      </c>
+      <c r="M3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="71">
+      <c r="N3" s="59">
         <f>INT((100+K12*5)*(10+K5)*0.1)+K29</f>
-        <v>704</v>
+        <v>9185</v>
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="88" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="74">
-        <v>1</v>
-      </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="70" t="s">
+      <c r="C4" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="62">
+        <v>1</v>
+      </c>
+      <c r="E4" s="89"/>
+      <c r="F4" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="59">
         <f>INT(D13*(10+D5)*0.1)+D19</f>
-        <v>176</v>
-      </c>
-      <c r="I4" s="87" t="s">
+        <v>4400</v>
+      </c>
+      <c r="I4" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="88" t="s">
-        <v>209</v>
-      </c>
-      <c r="K4" s="74">
-        <v>1</v>
-      </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="70" t="s">
+      <c r="J4" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" s="62">
+        <v>2</v>
+      </c>
+      <c r="L4" s="89"/>
+      <c r="M4" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="71">
+      <c r="N4" s="59">
         <f>INT(K13*(10+K5)*0.1)+K19</f>
-        <v>176</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="87"/>
-      <c r="C5" s="88" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="74">
-        <v>1</v>
-      </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="71">
+      <c r="D5" s="62">
+        <v>100</v>
+      </c>
+      <c r="E5" s="89"/>
+      <c r="F5" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="59">
         <f>INT(D13*(10+D5)*0.07)+G24</f>
-        <v>110</v>
-      </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="88" t="s">
+        <v>2420</v>
+      </c>
+      <c r="I5" s="96"/>
+      <c r="J5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="74">
-        <v>1</v>
-      </c>
-      <c r="L5" s="85"/>
-      <c r="M5" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" s="71">
+      <c r="K5" s="62">
+        <v>100</v>
+      </c>
+      <c r="L5" s="89"/>
+      <c r="M5" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="59">
         <f>INT(K13*(10+K5)*0.07)+N24</f>
-        <v>110</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="87"/>
-      <c r="C6" s="88" t="s">
-        <v>396</v>
-      </c>
-      <c r="D6" s="90" t="str">
+      <c r="B6" s="96"/>
+      <c r="C6" s="69" t="s">
+        <v>374</v>
+      </c>
+      <c r="D6" s="71" t="str">
         <f>VLOOKUP(D4,仙侣!B:E,4,0)</f>
         <v>孙悟空</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="71">
+      <c r="E6" s="89"/>
+      <c r="F6" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="59">
         <f>INT(D14*(10+D5)*0.1)+D24</f>
-        <v>118</v>
-      </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="88" t="s">
-        <v>396</v>
-      </c>
-      <c r="K6" s="90" t="str">
+        <v>748</v>
+      </c>
+      <c r="I6" s="96"/>
+      <c r="J6" s="69" t="s">
+        <v>374</v>
+      </c>
+      <c r="K6" s="71" t="str">
         <f>VLOOKUP(K4,仙侣!B:E,4,0)</f>
-        <v>孙悟空</v>
-      </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="71">
+        <v>杨戬</v>
+      </c>
+      <c r="L6" s="89"/>
+      <c r="M6" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="59">
         <f>INT(K14*(10+K5)*0.1)+K24</f>
-        <v>118</v>
+        <v>836</v>
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="87"/>
-      <c r="C7" s="88" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="89">
+      <c r="D7" s="70">
         <f>VLOOKUP(D4,仙侣!B:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="71">
+      <c r="E7" s="89"/>
+      <c r="F7" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="59">
         <f>INT(D14*(10+D5)*0.07)+G19</f>
-        <v>74</v>
-      </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="88" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I7" s="96"/>
+      <c r="J7" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="89">
+      <c r="K7" s="70">
         <f>VLOOKUP(K4,仙侣!B:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="85"/>
-      <c r="M7" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="71">
+      <c r="L7" s="89"/>
+      <c r="M7" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="59">
         <f>INT(K14*(10+K5)*0.07)+N19</f>
-        <v>74</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="87"/>
-      <c r="C8" s="88" t="s">
-        <v>397</v>
-      </c>
-      <c r="D8" s="90" t="str">
+      <c r="B8" s="96"/>
+      <c r="C8" s="69" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" s="71" t="str">
         <f>VLOOKUP(D7,职业!B:C,2,0)</f>
         <v>战神</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="70" t="s">
+      <c r="E8" s="89"/>
+      <c r="F8" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="59">
         <f>INT(D12*(10+D5)*0.1)+G14</f>
-        <v>162</v>
-      </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="88" t="s">
-        <v>397</v>
-      </c>
-      <c r="K8" s="90" t="str">
+        <v>3828</v>
+      </c>
+      <c r="I8" s="96"/>
+      <c r="J8" s="69" t="s">
+        <v>375</v>
+      </c>
+      <c r="K8" s="71" t="str">
         <f>VLOOKUP(K7,职业!B:C,2,0)</f>
         <v>战神</v>
       </c>
-      <c r="L8" s="85"/>
-      <c r="M8" s="70" t="s">
+      <c r="L8" s="89"/>
+      <c r="M8" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="71">
+      <c r="N8" s="59">
         <f>INT(K12*(10+K5)*0.1)+N14</f>
-        <v>162</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="87"/>
-      <c r="C9" s="88" t="s">
+      <c r="B9" s="96"/>
+      <c r="C9" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="89">
+      <c r="D9" s="70">
         <f>VLOOKUP(D4,仙侣!B:D,3,0)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="70" t="s">
+      <c r="E9" s="90"/>
+      <c r="F9" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="59">
         <f>INT(D12*(10+D5)*0.07)+G29</f>
-        <v>119</v>
-      </c>
-      <c r="I9" s="87"/>
-      <c r="J9" s="88" t="s">
+        <v>2954</v>
+      </c>
+      <c r="I9" s="96"/>
+      <c r="J9" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="89">
+      <c r="K9" s="70">
         <f>VLOOKUP(K4,仙侣!B:D,3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L9" s="86"/>
-      <c r="M9" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="90"/>
+      <c r="M9" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="71">
+      <c r="N9" s="59">
         <f>INT(K12*(10+K5)*0.07)+N29</f>
-        <v>119</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="87"/>
-      <c r="C10" s="88" t="s">
-        <v>398</v>
-      </c>
-      <c r="D10" s="90" t="str">
+      <c r="B10" s="96"/>
+      <c r="C10" s="69" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" s="71" t="str">
         <f>VLOOKUP(D9,绝技!B:C,2,0)</f>
         <v>金箍乱舞</v>
       </c>
-      <c r="E10" s="83" t="s">
-        <v>418</v>
-      </c>
-      <c r="F10" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="G10" s="74">
-        <v>7</v>
-      </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88" t="s">
-        <v>398</v>
-      </c>
-      <c r="K10" s="90" t="str">
+      <c r="E10" s="95" t="s">
+        <v>396</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="62">
+        <v>35</v>
+      </c>
+      <c r="I10" s="96"/>
+      <c r="J10" s="69" t="s">
+        <v>376</v>
+      </c>
+      <c r="K10" s="71" t="str">
         <f>VLOOKUP(K9,绝技!B:C,2,0)</f>
-        <v>金箍乱舞</v>
-      </c>
-      <c r="L10" s="83" t="s">
-        <v>418</v>
-      </c>
-      <c r="M10" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="N10" s="74">
-        <v>7</v>
+        <v>乾坤无极</v>
+      </c>
+      <c r="L10" s="95" t="s">
+        <v>396</v>
+      </c>
+      <c r="M10" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="N10" s="62">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="87"/>
-      <c r="C11" s="88" t="s">
-        <v>305</v>
-      </c>
-      <c r="D11" s="89">
+      <c r="B11" s="96"/>
+      <c r="C11" s="69" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="70">
         <f>VLOOKUP(D9,绝技!B:D,3,0)</f>
         <v>0.6</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="68" t="s">
+      <c r="E11" s="95"/>
+      <c r="F11" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="74">
-        <v>1</v>
-      </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88" t="s">
-        <v>305</v>
-      </c>
-      <c r="K11" s="89">
+      <c r="G11" s="62">
+        <v>100</v>
+      </c>
+      <c r="I11" s="96"/>
+      <c r="J11" s="69" t="s">
+        <v>285</v>
+      </c>
+      <c r="K11" s="70">
         <f>VLOOKUP(K9,绝技!B:D,3,0)</f>
-        <v>0.6</v>
-      </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="95"/>
+      <c r="M11" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="74">
-        <v>1</v>
+      <c r="N11" s="62">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="87"/>
-      <c r="C12" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="89">
+      <c r="B12" s="96"/>
+      <c r="C12" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="70">
         <f>VLOOKUP(D4,仙侣!B:H,7,0)</f>
         <v>98</v>
       </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="68" t="s">
+      <c r="E12" s="95"/>
+      <c r="F12" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="80" t="str">
+      <c r="G12" s="68" t="str">
         <f>VLOOKUP(G10,装备!B:C,2,0)</f>
-        <v>伏魔法宝</v>
-      </c>
-      <c r="I12" s="87"/>
-      <c r="J12" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="89">
+        <v>乾坤法宝</v>
+      </c>
+      <c r="I12" s="96"/>
+      <c r="J12" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="70">
         <f>VLOOKUP(K4,仙侣!B:H,7,0)</f>
-        <v>98</v>
-      </c>
-      <c r="L12" s="83"/>
-      <c r="M12" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="95"/>
+      <c r="M12" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="80" t="str">
+      <c r="N12" s="68" t="str">
         <f>VLOOKUP(N10,装备!B:C,2,0)</f>
-        <v>伏魔法宝</v>
+        <v>乾坤法宝</v>
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="87"/>
-      <c r="C13" s="88" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="89">
+      <c r="D13" s="70">
         <f>VLOOKUP(D4,仙侣!B:I,8,0)</f>
         <v>100</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="68" t="s">
-        <v>412</v>
-      </c>
-      <c r="G13" s="69">
+      <c r="E13" s="95"/>
+      <c r="F13" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="G13" s="57">
         <f>VLOOKUP(G10,装备!B:E,4,0)</f>
-        <v>5</v>
-      </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="96"/>
+      <c r="J13" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="89">
+      <c r="K13" s="70">
         <f>VLOOKUP(K4,仙侣!B:I,8,0)</f>
-        <v>100</v>
-      </c>
-      <c r="L13" s="83"/>
-      <c r="M13" s="68" t="s">
-        <v>412</v>
-      </c>
-      <c r="N13" s="69">
+        <v>99</v>
+      </c>
+      <c r="L13" s="95"/>
+      <c r="M13" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="N13" s="57">
         <f>VLOOKUP(N10,装备!B:E,4,0)</f>
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="87"/>
-      <c r="C14" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="89">
+      <c r="B14" s="96"/>
+      <c r="C14" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="70">
         <f>VLOOKUP(D4,仙侣!B:J,9,0)</f>
         <v>68</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="68" t="s">
-        <v>423</v>
-      </c>
-      <c r="G14" s="69">
+      <c r="E14" s="95"/>
+      <c r="F14" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="G14" s="57">
         <f>G13*(G11+10)</f>
-        <v>55</v>
-      </c>
-      <c r="I14" s="87"/>
-      <c r="J14" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="89">
+        <v>2750</v>
+      </c>
+      <c r="I14" s="96"/>
+      <c r="J14" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="70">
         <f>VLOOKUP(K4,仙侣!B:J,9,0)</f>
-        <v>68</v>
-      </c>
-      <c r="L14" s="83"/>
-      <c r="M14" s="68" t="s">
-        <v>423</v>
-      </c>
-      <c r="N14" s="69">
+        <v>76</v>
+      </c>
+      <c r="L14" s="95"/>
+      <c r="M14" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="N14" s="57">
         <f>N13*(N11+10)</f>
-        <v>55</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="82" t="s">
-        <v>411</v>
-      </c>
-      <c r="C15" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="D15" s="74">
-        <v>1</v>
-      </c>
-      <c r="E15" s="81" t="s">
-        <v>416</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="G15" s="74">
-        <v>4</v>
-      </c>
-      <c r="I15" s="82" t="s">
-        <v>411</v>
-      </c>
-      <c r="J15" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="K15" s="74">
-        <v>1</v>
-      </c>
-      <c r="L15" s="81" t="s">
-        <v>416</v>
-      </c>
-      <c r="M15" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="N15" s="74">
-        <v>4</v>
+      <c r="B15" s="97" t="s">
+        <v>389</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="62">
+        <v>29</v>
+      </c>
+      <c r="E15" s="94" t="s">
+        <v>394</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="62">
+        <v>32</v>
+      </c>
+      <c r="I15" s="97" t="s">
+        <v>389</v>
+      </c>
+      <c r="J15" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="K15" s="62">
+        <v>29</v>
+      </c>
+      <c r="L15" s="94" t="s">
+        <v>394</v>
+      </c>
+      <c r="M15" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="N15" s="62">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="82"/>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="97"/>
+      <c r="C16" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="74">
-        <v>1</v>
-      </c>
-      <c r="E16" s="81"/>
-      <c r="F16" s="70" t="s">
+      <c r="D16" s="62">
+        <v>100</v>
+      </c>
+      <c r="E16" s="94"/>
+      <c r="F16" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="74">
-        <v>1</v>
-      </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="72" t="s">
+      <c r="G16" s="62">
+        <v>100</v>
+      </c>
+      <c r="I16" s="97"/>
+      <c r="J16" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="74">
-        <v>1</v>
-      </c>
-      <c r="L16" s="81"/>
-      <c r="M16" s="70" t="s">
+      <c r="K16" s="62">
+        <v>100</v>
+      </c>
+      <c r="L16" s="94"/>
+      <c r="M16" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="N16" s="74">
-        <v>1</v>
+      <c r="N16" s="62">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="82"/>
-      <c r="C17" s="72" t="s">
+      <c r="B17" s="97"/>
+      <c r="C17" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="79" t="str">
+      <c r="D17" s="67" t="str">
         <f>VLOOKUP(D15,装备!B:C,2,0)</f>
-        <v>伏魔宝刀</v>
-      </c>
-      <c r="E17" s="81"/>
-      <c r="F17" s="70" t="s">
+        <v>乾坤宝刀</v>
+      </c>
+      <c r="E17" s="94"/>
+      <c r="F17" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="78" t="str">
+      <c r="G17" s="66" t="str">
         <f>VLOOKUP(G15,装备!B:C,2,0)</f>
-        <v>伏魔法冠</v>
-      </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="72" t="s">
+        <v>乾坤法冠</v>
+      </c>
+      <c r="I17" s="97"/>
+      <c r="J17" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="79" t="str">
+      <c r="K17" s="67" t="str">
         <f>VLOOKUP(K15,装备!B:C,2,0)</f>
-        <v>伏魔宝刀</v>
-      </c>
-      <c r="L17" s="81"/>
-      <c r="M17" s="70" t="s">
+        <v>乾坤宝刀</v>
+      </c>
+      <c r="L17" s="94"/>
+      <c r="M17" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="78" t="str">
+      <c r="N17" s="66" t="str">
         <f>VLOOKUP(N15,装备!B:C,2,0)</f>
-        <v>伏魔法冠</v>
+        <v>乾坤法冠</v>
       </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="82"/>
-      <c r="C18" s="72" t="s">
-        <v>412</v>
-      </c>
-      <c r="D18" s="73">
+      <c r="B18" s="97"/>
+      <c r="C18" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="D18" s="61">
         <f>VLOOKUP(D15,装备!B:E,4,0)</f>
-        <v>6</v>
-      </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="70" t="s">
-        <v>412</v>
-      </c>
-      <c r="G18" s="71">
+        <v>30</v>
+      </c>
+      <c r="E18" s="94"/>
+      <c r="F18" s="58" t="s">
+        <v>390</v>
+      </c>
+      <c r="G18" s="59">
         <f>VLOOKUP(G15,装备!B:E,4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="I18" s="97"/>
+      <c r="J18" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="K18" s="61">
+        <f>VLOOKUP(K15,装备!B:E,4,0)</f>
+        <v>30</v>
+      </c>
+      <c r="L18" s="94"/>
+      <c r="M18" s="58" t="s">
+        <v>390</v>
+      </c>
+      <c r="N18" s="59">
+        <f>VLOOKUP(N15,装备!B:E,4,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="97"/>
+      <c r="C19" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="D19" s="61">
+        <f>D18*(D16+10)</f>
+        <v>3300</v>
+      </c>
+      <c r="E19" s="94"/>
+      <c r="F19" s="58" t="s">
+        <v>402</v>
+      </c>
+      <c r="G19" s="59">
+        <f>G18*(G16+10)</f>
+        <v>1100</v>
+      </c>
+      <c r="I19" s="97"/>
+      <c r="J19" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="K19" s="61">
+        <f>K18*(K16+10)</f>
+        <v>3300</v>
+      </c>
+      <c r="L19" s="94"/>
+      <c r="M19" s="58" t="s">
+        <v>402</v>
+      </c>
+      <c r="N19" s="59">
+        <f>N18*(N16+10)</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="94" t="s">
+        <v>391</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="62">
+        <v>0</v>
+      </c>
+      <c r="E20" s="95" t="s">
+        <v>393</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="62">
+        <v>33</v>
+      </c>
+      <c r="I20" s="94" t="s">
+        <v>391</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" s="62">
+        <v>0</v>
+      </c>
+      <c r="L20" s="95" t="s">
+        <v>393</v>
+      </c>
+      <c r="M20" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="N20" s="62">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="94"/>
+      <c r="C21" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="82"/>
-      <c r="J18" s="72" t="s">
-        <v>412</v>
-      </c>
-      <c r="K18" s="73">
-        <f>VLOOKUP(K15,装备!B:E,4,0)</f>
-        <v>6</v>
-      </c>
-      <c r="L18" s="81"/>
-      <c r="M18" s="70" t="s">
-        <v>412</v>
-      </c>
-      <c r="N18" s="71">
-        <f>VLOOKUP(N15,装备!B:E,4,0)</f>
+      <c r="D21" s="62">
+        <v>100</v>
+      </c>
+      <c r="E21" s="95"/>
+      <c r="F21" s="56" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="82"/>
-      <c r="C19" s="72" t="s">
-        <v>399</v>
-      </c>
-      <c r="D19" s="73">
-        <f>D18*(D16+10)</f>
-        <v>66</v>
-      </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="70" t="s">
-        <v>424</v>
-      </c>
-      <c r="G19" s="71">
-        <f>G18*(G16+10)</f>
+      <c r="G21" s="62">
+        <v>100</v>
+      </c>
+      <c r="I21" s="94"/>
+      <c r="J21" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="62">
+        <v>100</v>
+      </c>
+      <c r="L21" s="95"/>
+      <c r="M21" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="94"/>
+      <c r="C22" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="66" t="str">
+        <f>VLOOKUP(D20,装备!B:C,2,0)</f>
+        <v>无</v>
+      </c>
+      <c r="E22" s="95"/>
+      <c r="F22" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="68" t="str">
+        <f>VLOOKUP(G20,装备!B:C,2,0)</f>
+        <v>乾坤法袍</v>
+      </c>
+      <c r="I22" s="94"/>
+      <c r="J22" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="66" t="str">
+        <f>VLOOKUP(K20,装备!B:C,2,0)</f>
+        <v>无</v>
+      </c>
+      <c r="L22" s="95"/>
+      <c r="M22" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="68" t="str">
+        <f>VLOOKUP(N20,装备!B:C,2,0)</f>
+        <v>乾坤法袍</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="94"/>
+      <c r="C23" s="58" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" s="59">
+        <f>VLOOKUP(D20,装备!B:E,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="95"/>
+      <c r="F23" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="G23" s="57">
+        <f>VLOOKUP(G20,装备!B:E,4,0)</f>
+        <v>15</v>
+      </c>
+      <c r="I23" s="94"/>
+      <c r="J23" s="58" t="s">
+        <v>390</v>
+      </c>
+      <c r="K23" s="59">
+        <f>VLOOKUP(K20,装备!B:E,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="95"/>
+      <c r="M23" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="N23" s="57">
+        <f>VLOOKUP(N20,装备!B:E,4,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="94"/>
+      <c r="C24" s="58" t="s">
+        <v>397</v>
+      </c>
+      <c r="D24" s="59">
+        <f>D23*(D21+10)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="95"/>
+      <c r="F24" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="G24" s="57">
+        <f>G23*(G21+10)</f>
+        <v>1650</v>
+      </c>
+      <c r="I24" s="94"/>
+      <c r="J24" s="58" t="s">
+        <v>397</v>
+      </c>
+      <c r="K24" s="59">
+        <f>K23*(K21+10)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="95"/>
+      <c r="M24" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="N24" s="57">
+        <f>N23*(N21+10)</f>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="95" t="s">
+        <v>392</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="62">
+        <v>31</v>
+      </c>
+      <c r="E25" s="94" t="s">
+        <v>395</v>
+      </c>
+      <c r="F25" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" s="62">
+        <v>34</v>
+      </c>
+      <c r="I25" s="95" t="s">
+        <v>392</v>
+      </c>
+      <c r="J25" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" s="62">
+        <v>31</v>
+      </c>
+      <c r="L25" s="94" t="s">
+        <v>395</v>
+      </c>
+      <c r="M25" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="N25" s="62">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="95"/>
+      <c r="C26" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="62">
+        <v>100</v>
+      </c>
+      <c r="E26" s="94"/>
+      <c r="F26" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="62">
+        <v>100</v>
+      </c>
+      <c r="I26" s="95"/>
+      <c r="J26" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="62">
+        <v>100</v>
+      </c>
+      <c r="L26" s="94"/>
+      <c r="M26" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="95"/>
+      <c r="C27" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="68" t="str">
+        <f>VLOOKUP(D25,装备!B:C,2,0)</f>
+        <v>乾坤护符</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="66" t="str">
+        <f>VLOOKUP(G25,装备!B:C,2,0)</f>
+        <v>乾坤战靴</v>
+      </c>
+      <c r="I27" s="95"/>
+      <c r="J27" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="68" t="str">
+        <f>VLOOKUP(K25,装备!B:C,2,0)</f>
+        <v>乾坤护符</v>
+      </c>
+      <c r="L27" s="94"/>
+      <c r="M27" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="66" t="str">
+        <f>VLOOKUP(N25,装备!B:C,2,0)</f>
+        <v>乾坤战靴</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="95"/>
+      <c r="C28" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="D28" s="57">
+        <f>VLOOKUP(D25,装备!B:E,4,0)</f>
+        <v>25</v>
+      </c>
+      <c r="E28" s="94"/>
+      <c r="F28" s="58" t="s">
+        <v>390</v>
+      </c>
+      <c r="G28" s="59">
+        <f>VLOOKUP(G25,装备!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+      <c r="I28" s="95"/>
+      <c r="J28" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="K28" s="57">
+        <f>VLOOKUP(K25,装备!B:E,4,0)</f>
+        <v>25</v>
+      </c>
+      <c r="L28" s="94"/>
+      <c r="M28" s="58" t="s">
+        <v>390</v>
+      </c>
+      <c r="N28" s="59">
+        <f>VLOOKUP(N25,装备!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="95"/>
+      <c r="C29" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="D29" s="57">
+        <f>D28*(D26+10)</f>
+        <v>2750</v>
+      </c>
+      <c r="E29" s="94"/>
+      <c r="F29" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G29" s="59">
+        <f>G28*(G26+10)</f>
+        <v>2200</v>
+      </c>
+      <c r="I29" s="95"/>
+      <c r="J29" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="K29" s="57">
+        <f>K28*(K26+10)</f>
+        <v>2750</v>
+      </c>
+      <c r="L29" s="94"/>
+      <c r="M29" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N29" s="59">
+        <f>N28*(N26+10)</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="C31" s="78" t="str">
+        <f>D6&amp;" 攻击 "&amp;K6</f>
+        <v>孙悟空 攻击 杨戬</v>
+      </c>
+      <c r="D31" s="80"/>
+      <c r="E31" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="J31" s="78" t="str">
+        <f>K6&amp;" 攻击 "&amp;D6</f>
+        <v>杨戬 攻击 孙悟空</v>
+      </c>
+      <c r="K31" s="80"/>
+      <c r="L31" s="55" t="s">
+        <v>405</v>
+      </c>
+      <c r="M31" s="55" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="C32" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="72">
+        <f>-MAX(IF(D7&lt;&gt;4,G4-N5,G6-N7),0)-(D5+10)</f>
+        <v>-2098</v>
+      </c>
+      <c r="F32" s="73">
+        <f>N3+E32</f>
+        <v>7087</v>
+      </c>
+      <c r="J32" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="72">
+        <f>-MAX(IF(K7&lt;&gt;4,N4-G5,N6-G7),0)-(K5+10)</f>
+        <v>-2079</v>
+      </c>
+      <c r="M32" s="73">
+        <f>G3+L32</f>
+        <v>7161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="C33" s="89"/>
+      <c r="D33" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="72">
+        <f>INT(E32/2)</f>
+        <v>-1049</v>
+      </c>
+      <c r="F33" s="73">
+        <f>N3+E33</f>
+        <v>8136</v>
+      </c>
+      <c r="J33" s="89"/>
+      <c r="K33" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" s="72">
+        <f>INT(L32/2)</f>
+        <v>-1040</v>
+      </c>
+      <c r="M33" s="73">
+        <f>G3+L33</f>
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="C34" s="90"/>
+      <c r="D34" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="82"/>
-      <c r="J19" s="72" t="s">
-        <v>399</v>
-      </c>
-      <c r="K19" s="73">
-        <f>K18*(K16+10)</f>
-        <v>66</v>
-      </c>
-      <c r="L19" s="81"/>
-      <c r="M19" s="70" t="s">
-        <v>424</v>
-      </c>
-      <c r="N19" s="71">
-        <f>N18*(N16+10)</f>
+      <c r="E34" s="72">
+        <f>E32*2</f>
+        <v>-4196</v>
+      </c>
+      <c r="F34" s="73">
+        <f>N3+E34</f>
+        <v>4989</v>
+      </c>
+      <c r="J34" s="90"/>
+      <c r="K34" s="59" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="81" t="s">
-        <v>413</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="74">
-        <v>2</v>
-      </c>
-      <c r="E20" s="83" t="s">
-        <v>415</v>
-      </c>
-      <c r="F20" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="G20" s="74">
-        <v>5</v>
-      </c>
-      <c r="I20" s="81" t="s">
-        <v>413</v>
-      </c>
-      <c r="J20" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="K20" s="74">
-        <v>2</v>
-      </c>
-      <c r="L20" s="83" t="s">
-        <v>415</v>
-      </c>
-      <c r="M20" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="N20" s="74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="81"/>
-      <c r="C21" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="74">
-        <v>1</v>
-      </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="74">
-        <v>1</v>
-      </c>
-      <c r="I21" s="81"/>
-      <c r="J21" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" s="74">
-        <v>1</v>
-      </c>
-      <c r="L21" s="83"/>
-      <c r="M21" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="N21" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="81"/>
-      <c r="C22" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="78" t="str">
-        <f>VLOOKUP(D20,装备!B:C,2,0)</f>
-        <v>伏魔法杖</v>
-      </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="80" t="str">
-        <f>VLOOKUP(G20,装备!B:C,2,0)</f>
-        <v>伏魔法袍</v>
-      </c>
-      <c r="I22" s="81"/>
-      <c r="J22" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="78" t="str">
-        <f>VLOOKUP(K20,装备!B:C,2,0)</f>
-        <v>伏魔法杖</v>
-      </c>
-      <c r="L22" s="83"/>
-      <c r="M22" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="80" t="str">
-        <f>VLOOKUP(N20,装备!B:C,2,0)</f>
-        <v>伏魔法袍</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="81"/>
-      <c r="C23" s="70" t="s">
-        <v>412</v>
-      </c>
-      <c r="D23" s="71">
-        <f>VLOOKUP(D20,装备!B:E,4,0)</f>
-        <v>4</v>
-      </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="68" t="s">
-        <v>412</v>
-      </c>
-      <c r="G23" s="69">
-        <f>VLOOKUP(G20,装备!B:E,4,0)</f>
-        <v>3</v>
-      </c>
-      <c r="I23" s="81"/>
-      <c r="J23" s="70" t="s">
-        <v>412</v>
-      </c>
-      <c r="K23" s="71">
-        <f>VLOOKUP(K20,装备!B:E,4,0)</f>
-        <v>4</v>
-      </c>
-      <c r="L23" s="83"/>
-      <c r="M23" s="68" t="s">
-        <v>412</v>
-      </c>
-      <c r="N23" s="69">
-        <f>VLOOKUP(N20,装备!B:E,4,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="81"/>
-      <c r="C24" s="70" t="s">
-        <v>419</v>
-      </c>
-      <c r="D24" s="71">
-        <f>D23*(D21+10)</f>
-        <v>44</v>
-      </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="68" t="s">
-        <v>425</v>
-      </c>
-      <c r="G24" s="69">
-        <f>G23*(G21+10)</f>
-        <v>33</v>
-      </c>
-      <c r="I24" s="81"/>
-      <c r="J24" s="70" t="s">
-        <v>419</v>
-      </c>
-      <c r="K24" s="71">
-        <f>K23*(K21+10)</f>
-        <v>44</v>
-      </c>
-      <c r="L24" s="83"/>
-      <c r="M24" s="68" t="s">
-        <v>425</v>
-      </c>
-      <c r="N24" s="69">
-        <f>N23*(N21+10)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="83" t="s">
-        <v>414</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="74">
-        <v>3</v>
-      </c>
-      <c r="E25" s="81" t="s">
-        <v>417</v>
-      </c>
-      <c r="F25" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="G25" s="74">
-        <v>6</v>
-      </c>
-      <c r="I25" s="83" t="s">
-        <v>414</v>
-      </c>
-      <c r="J25" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="K25" s="74">
-        <v>3</v>
-      </c>
-      <c r="L25" s="81" t="s">
-        <v>417</v>
-      </c>
-      <c r="M25" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="N25" s="74">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="83"/>
-      <c r="C26" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="74">
-        <v>1</v>
-      </c>
-      <c r="E26" s="81"/>
-      <c r="F26" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="74">
-        <v>1</v>
-      </c>
-      <c r="I26" s="83"/>
-      <c r="J26" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="K26" s="74">
-        <v>1</v>
-      </c>
-      <c r="L26" s="81"/>
-      <c r="M26" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="N26" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="83"/>
-      <c r="C27" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="80" t="str">
-        <f>VLOOKUP(D25,装备!B:C,2,0)</f>
-        <v>伏魔护符</v>
-      </c>
-      <c r="E27" s="81"/>
-      <c r="F27" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="78" t="str">
-        <f>VLOOKUP(G25,装备!B:C,2,0)</f>
-        <v>伏魔战靴</v>
-      </c>
-      <c r="I27" s="83"/>
-      <c r="J27" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="80" t="str">
-        <f>VLOOKUP(K25,装备!B:C,2,0)</f>
-        <v>伏魔护符</v>
-      </c>
-      <c r="L27" s="81"/>
-      <c r="M27" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="78" t="str">
-        <f>VLOOKUP(N25,装备!B:C,2,0)</f>
-        <v>伏魔战靴</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="83"/>
-      <c r="C28" s="68" t="s">
-        <v>412</v>
-      </c>
-      <c r="D28" s="69">
-        <f>VLOOKUP(D25,装备!B:E,4,0)</f>
-        <v>5</v>
-      </c>
-      <c r="E28" s="81"/>
-      <c r="F28" s="70" t="s">
-        <v>412</v>
-      </c>
-      <c r="G28" s="71">
-        <f>VLOOKUP(G25,装备!B:E,4,0)</f>
-        <v>4</v>
-      </c>
-      <c r="I28" s="83"/>
-      <c r="J28" s="68" t="s">
-        <v>412</v>
-      </c>
-      <c r="K28" s="69">
-        <f>VLOOKUP(K25,装备!B:E,4,0)</f>
-        <v>5</v>
-      </c>
-      <c r="L28" s="81"/>
-      <c r="M28" s="70" t="s">
-        <v>412</v>
-      </c>
-      <c r="N28" s="71">
-        <f>VLOOKUP(N25,装备!B:E,4,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="83"/>
-      <c r="C29" s="68" t="s">
-        <v>422</v>
-      </c>
-      <c r="D29" s="69">
-        <f>D28*(D26+10)</f>
-        <v>55</v>
-      </c>
-      <c r="E29" s="81"/>
-      <c r="F29" s="70" t="s">
-        <v>426</v>
-      </c>
-      <c r="G29" s="71">
-        <f>G28*(G26+10)</f>
-        <v>44</v>
-      </c>
-      <c r="I29" s="83"/>
-      <c r="J29" s="68" t="s">
-        <v>422</v>
-      </c>
-      <c r="K29" s="69">
-        <f>K28*(K26+10)</f>
-        <v>55</v>
-      </c>
-      <c r="L29" s="81"/>
-      <c r="M29" s="70" t="s">
-        <v>426</v>
-      </c>
-      <c r="N29" s="71">
-        <f>N28*(N26+10)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50" t="s">
-        <v>427</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="67" t="s">
+      <c r="L34" s="72">
+        <f>L32*2</f>
+        <v>-4158</v>
+      </c>
+      <c r="M34" s="73">
+        <f>G3+L34</f>
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="C35" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="91">
-        <f>-MAX(IF(D7&lt;&gt;4,G4-N5,G6-N7),0)-(D5+10)</f>
-        <v>-77</v>
-      </c>
-      <c r="E32" s="92">
-        <f>N3+D32</f>
-        <v>627</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="B33" s="67"/>
-      <c r="C33" s="67" t="s">
+      <c r="E35" s="74">
+        <f>-MAX(INT(IF(D7&lt;&gt;4,G4+G8-N9,G6+G8-N9)*D11),0)-(D5+10)</f>
+        <v>-3279</v>
+      </c>
+      <c r="F35" s="75">
+        <f>N3+E35</f>
+        <v>5906</v>
+      </c>
+      <c r="J35" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="74">
+        <f>-MAX(INT(IF(K7&lt;&gt;4,N4+N8-G9,N6+N8-G9)*K11),0)-(K5+10)</f>
+        <v>-5362</v>
+      </c>
+      <c r="M35" s="75">
+        <f>G3+L35</f>
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="C36" s="92"/>
+      <c r="D36" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="91">
-        <f>INT(D32/2)</f>
-        <v>-39</v>
-      </c>
-      <c r="E33" s="92">
-        <f>N3+D33</f>
-        <v>665</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="B34" s="67"/>
-      <c r="C34" s="67" t="s">
+      <c r="E36" s="74">
+        <f>INT(E35/2)</f>
+        <v>-1640</v>
+      </c>
+      <c r="F36" s="75">
+        <f>N3+E36</f>
+        <v>7545</v>
+      </c>
+      <c r="J36" s="92"/>
+      <c r="K36" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="L36" s="74">
+        <f>INT(L35/2)</f>
+        <v>-2681</v>
+      </c>
+      <c r="M36" s="75">
+        <f>G3+L36</f>
+        <v>6559</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="C37" s="93"/>
+      <c r="D37" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="91">
-        <f>D32*2</f>
-        <v>-154</v>
-      </c>
-      <c r="E34" s="92">
-        <f>N3+D34</f>
-        <v>550</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="91">
-        <f>-MAX(INT(IF(D7&lt;&gt;4,G4+G8-N9,G6+G8-N9)*0.6),0)-(D5+10)</f>
-        <v>-142</v>
-      </c>
-      <c r="E35" s="92">
-        <f>N3+D35</f>
-        <v>562</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="B36" s="67"/>
-      <c r="C36" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="91"/>
-      <c r="E36" s="92">
-        <f>N3+D36</f>
-        <v>704</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="B37" s="67"/>
-      <c r="C37" s="67" t="s">
+      <c r="E37" s="74">
+        <f>E35*2</f>
+        <v>-6558</v>
+      </c>
+      <c r="F37" s="75">
+        <f>N3+E37</f>
+        <v>2627</v>
+      </c>
+      <c r="J37" s="93"/>
+      <c r="K37" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="91"/>
-      <c r="E37" s="92">
-        <f>N3+D37</f>
-        <v>704</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="L37" s="74">
+        <f>L35*2</f>
+        <v>-10724</v>
+      </c>
+      <c r="M37" s="75">
+        <f>G3+L37</f>
+        <v>-1484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="D38"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:13">
       <c r="A39" s="14"/>
       <c r="D39"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:13">
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:13">
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:13">
       <c r="D42"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:13">
       <c r="D43"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:13">
       <c r="D44"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:13">
       <c r="D45"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:13">
       <c r="D46"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="26">
     <mergeCell ref="I20:I24"/>
     <mergeCell ref="L20:L24"/>
     <mergeCell ref="I25:I29"/>
@@ -17480,6 +17874,12 @@
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="E15:E19"/>
     <mergeCell ref="E20:E24"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="J31:K31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
@@ -17490,7 +17890,7 @@
       <formula1>"0,5,12,19,26,33"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N25 G25">
-      <formula1>"0.6,13,20,27,34"</formula1>
+      <formula1>"0,6,13,20,27,34"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K15 D15">
       <formula1>"0,1,8,15,22,29"</formula1>
@@ -17514,8 +17914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17526,19 +17926,19 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="43" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
@@ -17550,16 +17950,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -17571,16 +17971,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -17592,16 +17992,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -17613,16 +18013,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E6" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -17634,16 +18034,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="E7" s="46" t="s">
-        <v>264</v>
-      </c>
       <c r="F7" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -17655,16 +18055,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -17676,16 +18076,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -17697,16 +18097,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -17718,16 +18118,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>271</v>
+        <v>429</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -17739,16 +18139,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>272</v>
+        <v>430</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -17760,16 +18160,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>273</v>
+        <v>431</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -17781,16 +18181,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>274</v>
+        <v>432</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -17802,16 +18202,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>275</v>
+        <v>433</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -17823,16 +18223,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>276</v>
+        <v>434</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -17844,16 +18244,16 @@
         <v>101</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -17865,16 +18265,16 @@
         <v>102</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -17886,16 +18286,16 @@
         <v>103</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -17907,16 +18307,16 @@
         <v>104</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -17928,16 +18328,16 @@
         <v>105</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -17949,16 +18349,16 @@
         <v>106</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -17970,16 +18370,16 @@
         <v>107</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -17991,16 +18391,16 @@
         <v>108</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -18012,16 +18412,16 @@
         <v>109</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E25" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -18033,16 +18433,16 @@
         <v>110</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -18054,16 +18454,16 @@
         <v>111</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -18075,16 +18475,16 @@
         <v>112</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -18096,16 +18496,16 @@
         <v>113</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D29" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E29" s="46" t="s">
-        <v>265</v>
-      </c>
       <c r="F29" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -18117,16 +18517,16 @@
         <v>114</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -18138,16 +18538,16 @@
         <v>115</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E31" s="46" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -18159,16 +18559,16 @@
         <v>116</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -18180,16 +18580,16 @@
         <v>117</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E33" s="46" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -18201,16 +18601,16 @@
         <v>118</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E34" s="46" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -18222,16 +18622,16 @@
         <v>119</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E35" s="46" t="s">
-        <v>271</v>
+        <v>429</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -18243,16 +18643,16 @@
         <v>120</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E36" s="46" t="s">
-        <v>290</v>
+        <v>435</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -18264,16 +18664,16 @@
         <v>121</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E37" s="46" t="s">
-        <v>272</v>
+        <v>430</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
@@ -18285,16 +18685,16 @@
         <v>122</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E38" s="46" t="s">
-        <v>292</v>
+        <v>436</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
@@ -18306,16 +18706,16 @@
         <v>123</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>273</v>
+        <v>431</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
@@ -18327,16 +18727,16 @@
         <v>124</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>291</v>
+        <v>437</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
@@ -18348,16 +18748,16 @@
         <v>125</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>274</v>
+        <v>432</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
@@ -18369,16 +18769,16 @@
         <v>126</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>293</v>
+        <v>438</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
@@ -18390,16 +18790,16 @@
         <v>127</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>294</v>
+        <v>433</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
@@ -18411,16 +18811,16 @@
         <v>128</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>293</v>
+        <v>438</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
@@ -18432,16 +18832,16 @@
         <v>129</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>276</v>
+        <v>434</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
@@ -18453,16 +18853,16 @@
         <v>130</v>
       </c>
       <c r="C46" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>259</v>
-      </c>
       <c r="E46" s="46" t="s">
-        <v>295</v>
+        <v>439</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
@@ -18474,16 +18874,16 @@
         <v>131</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E47" s="46" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
@@ -18495,16 +18895,16 @@
         <v>132</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E48" s="46" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>

--- a/trunk/doc/数值设计/Action数值设计_仙侠.xlsx
+++ b/trunk/doc/数值设计/Action数值设计_仙侠.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="仙侣" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">职业!$B$2:$J$6</definedName>
     <definedName name="Eval">EVALUATE</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="494">
   <si>
     <t>ID</t>
   </si>
@@ -1915,10 +1915,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提升全体25气势，降低敌方全体25气势，保留100气势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轻舞妖媚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1937,6 +1933,54 @@
   </si>
   <si>
     <t>品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升全体25气势，降低敌方全体25气势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奋力一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横扫千军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长驱直入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十方皆杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵横驰骋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敖烈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2393,7 +2437,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2697,6 +2741,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3002,11 +3049,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:T177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G30" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3056,7 +3103,7 @@
         <v>264</v>
       </c>
       <c r="L2" s="57" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M2" s="57" t="s">
         <v>2</v>
@@ -6071,12 +6118,18 @@
         <f>VLOOKUP(D46,绝技!B:C,2,0)</f>
         <v>寒毒穿心</v>
       </c>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
+      <c r="H46" s="59">
+        <v>64</v>
+      </c>
+      <c r="I46" s="59">
+        <v>82</v>
+      </c>
+      <c r="J46" s="59">
+        <v>61</v>
+      </c>
       <c r="K46" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="L46" s="59">
         <v>2</v>
@@ -6086,31 +6139,31 @@
       </c>
       <c r="N46" s="63">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>462</v>
       </c>
       <c r="O46" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="P46" s="64">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="Q46" s="64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="R46" s="64">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="S46" s="64">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="T46" s="64">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="2:20">
@@ -6134,12 +6187,18 @@
         <f>VLOOKUP(D47,绝技!B:C,2,0)</f>
         <v>一刀两断</v>
       </c>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
+      <c r="H47" s="59">
+        <v>60</v>
+      </c>
+      <c r="I47" s="59">
+        <v>72</v>
+      </c>
+      <c r="J47" s="59">
+        <v>53</v>
+      </c>
       <c r="K47" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="L47" s="59">
         <v>2</v>
@@ -6149,31 +6208,31 @@
       </c>
       <c r="N47" s="63">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>440</v>
       </c>
       <c r="O47" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="P47" s="64">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q47" s="64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="R47" s="64">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S47" s="64">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="T47" s="64">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="2:20">
@@ -6197,12 +6256,18 @@
         <f>VLOOKUP(D48,绝技!B:C,2,0)</f>
         <v>清莲雨润</v>
       </c>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
+      <c r="H48" s="59">
+        <v>68</v>
+      </c>
+      <c r="I48" s="59">
+        <v>24</v>
+      </c>
+      <c r="J48" s="59">
+        <v>76</v>
+      </c>
       <c r="K48" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="L48" s="59">
         <v>2</v>
@@ -6212,31 +6277,31 @@
       </c>
       <c r="N48" s="63">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>484</v>
       </c>
       <c r="O48" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="P48" s="64">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q48" s="64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="R48" s="64">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="S48" s="64">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="T48" s="64">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="2:20">
@@ -6260,12 +6325,18 @@
         <f>VLOOKUP(D49,绝技!B:C,2,0)</f>
         <v>国色天香</v>
       </c>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
+      <c r="H49" s="59">
+        <v>52</v>
+      </c>
+      <c r="I49" s="59">
+        <v>12</v>
+      </c>
+      <c r="J49" s="59">
+        <v>85</v>
+      </c>
       <c r="K49" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="L49" s="59">
         <v>2</v>
@@ -6275,31 +6346,31 @@
       </c>
       <c r="N49" s="63">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>396</v>
       </c>
       <c r="O49" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P49" s="64">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q49" s="64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="R49" s="64">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="S49" s="64">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="T49" s="64">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:20">
@@ -6323,12 +6394,18 @@
         <f>VLOOKUP(D50,绝技!B:C,2,0)</f>
         <v>惊天狂雷</v>
       </c>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
+      <c r="H50" s="59">
+        <v>63</v>
+      </c>
+      <c r="I50" s="59">
+        <v>42</v>
+      </c>
+      <c r="J50" s="59">
+        <v>75</v>
+      </c>
       <c r="K50" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="L50" s="59">
         <v>2</v>
@@ -6338,31 +6415,31 @@
       </c>
       <c r="N50" s="63">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>456</v>
       </c>
       <c r="O50" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="P50" s="64">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Q50" s="64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="R50" s="64">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="S50" s="64">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="T50" s="64">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="2:20">
@@ -6386,12 +6463,18 @@
         <f>VLOOKUP(D51,绝技!B:C,2,0)</f>
         <v>轻舞妖媚</v>
       </c>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
+      <c r="H51" s="59">
+        <v>46</v>
+      </c>
+      <c r="I51" s="59">
+        <v>18</v>
+      </c>
+      <c r="J51" s="59">
+        <v>90</v>
+      </c>
       <c r="K51" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L51" s="59">
         <v>2</v>
@@ -6401,31 +6484,31 @@
       </c>
       <c r="N51" s="63">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>363</v>
       </c>
       <c r="O51" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P51" s="64">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q51" s="64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="R51" s="64">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="S51" s="64">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T51" s="64">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="2:20">
@@ -6449,12 +6532,18 @@
         <f>VLOOKUP(D52,绝技!B:C,2,0)</f>
         <v>梦断魂劳</v>
       </c>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
+      <c r="H52" s="59">
+        <v>65</v>
+      </c>
+      <c r="I52" s="59">
+        <v>50</v>
+      </c>
+      <c r="J52" s="59">
+        <v>67</v>
+      </c>
       <c r="K52" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="L52" s="59">
         <v>2</v>
@@ -6464,31 +6553,31 @@
       </c>
       <c r="N52" s="63">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>467</v>
       </c>
       <c r="O52" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="P52" s="64">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q52" s="64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="R52" s="64">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S52" s="64">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="T52" s="64">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="2:20">
@@ -13649,7 +13738,7 @@
       <c r="E177" s="77"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="B2:T2">
     <filterColumn colId="10"/>
   </autoFilter>
@@ -13683,8 +13772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13996,7 +14085,7 @@
         <v>0.4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>350</v>
@@ -14633,7 +14722,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="27">
+    <row r="50" spans="2:7">
       <c r="B50" s="2">
         <v>47</v>
       </c>
@@ -14644,7 +14733,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="8" t="s">
@@ -14676,7 +14765,7 @@
         <v>49</v>
       </c>
       <c r="C52" s="75" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D52" s="21">
         <v>0</v>
@@ -14700,10 +14789,10 @@
         <v>0.4</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>461</v>
@@ -14713,71 +14802,103 @@
       <c r="B54" s="2">
         <v>51</v>
       </c>
-      <c r="C54" s="75"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="7"/>
+      <c r="C54" s="99" t="s">
+        <v>483</v>
+      </c>
+      <c r="D54" s="21">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>487</v>
+      </c>
       <c r="F54" s="7"/>
-      <c r="G54" s="8"/>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="2">
         <v>52</v>
       </c>
-      <c r="C55" s="75"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="7"/>
+      <c r="C55" s="99" t="s">
+        <v>484</v>
+      </c>
+      <c r="D55" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>488</v>
+      </c>
       <c r="F55" s="7"/>
-      <c r="G55" s="8"/>
+      <c r="G55" s="2"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="2">
         <v>53</v>
       </c>
-      <c r="C56" s="75"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="7"/>
+      <c r="C56" s="99" t="s">
+        <v>485</v>
+      </c>
+      <c r="D56" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>489</v>
+      </c>
       <c r="F56" s="7"/>
-      <c r="G56" s="8"/>
+      <c r="G56" s="2" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="2">
         <v>54</v>
       </c>
-      <c r="C57" s="75"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="7"/>
+      <c r="C57" s="99" t="s">
+        <v>486</v>
+      </c>
+      <c r="D57" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>490</v>
+      </c>
       <c r="F57" s="7"/>
-      <c r="G57" s="8"/>
+      <c r="G57" s="2"/>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="2">
         <v>55</v>
       </c>
-      <c r="C58" s="75"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="7"/>
+      <c r="C58" s="99" t="s">
+        <v>491</v>
+      </c>
+      <c r="D58" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>492</v>
+      </c>
       <c r="F58" s="7"/>
-      <c r="G58" s="8"/>
+      <c r="G58" s="2"/>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="2">
         <v>56</v>
       </c>
-      <c r="C59" s="75"/>
+      <c r="C59" s="99"/>
       <c r="D59" s="21"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="8"/>
+      <c r="G59" s="2"/>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="2">
         <v>57</v>
       </c>
-      <c r="C60" s="75"/>
+      <c r="C60" s="99"/>
       <c r="D60" s="21"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="8"/>
+      <c r="G60" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15033,7 +15154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -15972,7 +16093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -16818,8 +16939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17976,7 +18097,7 @@
       <c r="D46"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="26">
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C35:C37"/>
@@ -18038,8 +18159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18251,7 +18372,7 @@
         <v>310</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -18272,7 +18393,7 @@
         <v>311</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -18293,7 +18414,7 @@
         <v>312</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -18314,7 +18435,7 @@
         <v>313</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -18335,7 +18456,7 @@
         <v>314</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -18356,7 +18477,7 @@
         <v>315</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -18755,7 +18876,7 @@
         <v>310</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -18776,7 +18897,7 @@
         <v>316</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -18797,7 +18918,7 @@
         <v>311</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -18818,7 +18939,7 @@
         <v>317</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -18839,7 +18960,7 @@
         <v>312</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -18860,7 +18981,7 @@
         <v>318</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -18881,7 +19002,7 @@
         <v>313</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -18902,7 +19023,7 @@
         <v>319</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -18923,7 +19044,7 @@
         <v>314</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -18944,7 +19065,7 @@
         <v>319</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -18965,7 +19086,7 @@
         <v>315</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -18986,7 +19107,7 @@
         <v>320</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
